--- a/management/lab_1.xlsx
+++ b/management/lab_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
   <si>
     <t>Актив</t>
   </si>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,6 +866,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="10">
+        <f>D26-D27*0.5</f>
         <v>7900</v>
       </c>
     </row>
@@ -904,6 +908,508 @@
         <v>32100</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>42147</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="11">
+        <f>B32+12000</f>
+        <v>19100</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="10">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="10">
+        <f>D34+7000-2800</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="12">
+        <f>SUM(B39:B42)</f>
+        <v>39100</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="12">
+        <f>SUM(D39:D42)</f>
+        <v>39100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42148</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="11">
+        <f>B39-D42</f>
+        <v>16300</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="10">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="10">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="12">
+        <f>SUM(B46:B49)</f>
+        <v>36300</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12">
+        <f>SUM(D46:D49)</f>
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>42150</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="11">
+        <f>B46-D48*0.5-B48</f>
+        <v>7100</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="10">
+        <f>D47-D48*0.5</f>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="10">
+        <f>B48*2</f>
+        <v>10000</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="10">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="12">
+        <f>SUM(B53:B56)</f>
+        <v>32100</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="12">
+        <f>SUM(D53:D56)</f>
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>42170</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="11">
+        <f>B53+12000</f>
+        <v>19100</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="11">
+        <f>D53</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="10">
+        <f>D54</f>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="10">
+        <f>B55/2</f>
+        <v>5000</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="10">
+        <f>D55+7000-2800</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="12">
+        <f>SUM(B60:B63)</f>
+        <v>39100</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="12">
+        <f>SUM(D60:D63)</f>
+        <v>39100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>42171</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="11">
+        <f>B60-D63</f>
+        <v>16300</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="10">
+        <f>D61</f>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="10">
+        <f>D62</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="12">
+        <f>SUM(B67:B70)</f>
+        <v>36300</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="12">
+        <f>SUM(D67:D70)</f>
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>42173</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="11">
+        <f>B67-D68-B69</f>
+        <v>7600</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="10">
+        <f>B69*2</f>
+        <v>10000</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="10">
+        <f>D69</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="12">
+        <f>SUM(B74:B77)</f>
+        <v>32600</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="12">
+        <f>SUM(D74:D77)</f>
+        <v>32600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
